--- a/Desenvolvimento Web 2019.2.xlsx
+++ b/Desenvolvimento Web 2019.2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menininho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20181134040009\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBB2A62-C2F9-4F24-8985-6243BF209426}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="dupla" sheetId="2" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="escola II" sheetId="7" r:id="rId6"/>
     <sheet name="eventos" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -261,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -282,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,6 +321,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,6 +438,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AD7196-F56F-413F-B397-B84AB248603D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -942,7 +950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A47616EB-095A-4F38-A7B3-41967015ED76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1160,7 +1168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BC88BF-61BD-4CA0-846C-BE9B5072FD0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1378,11 +1386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B465F02-3C38-4C1C-997F-20CFE1C653AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,6 +1440,9 @@
         <f>C2*D2</f>
         <v>0</v>
       </c>
+      <c r="F2" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="G2" s="7" t="s">
         <v>31</v>
       </c>
@@ -1556,9 +1567,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>73</v>
-      </c>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1608,7 +1617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB3F882-9DDF-47ED-8E72-4118CAA8A9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1822,7 +1831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3365FBC7-AEB0-484F-A0C4-3B67F0B159AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2036,7 +2045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2993CC13-7FAC-467B-B377-8E38E451D749}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
